--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb2-Rhbdl2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb2-Rhbdl2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H2">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I2">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J2">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.021610666666667</v>
+        <v>3.030775</v>
       </c>
       <c r="N2">
-        <v>3.064832</v>
+        <v>9.092325000000001</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>32.59997334766934</v>
+        <v>113.4927292954583</v>
       </c>
       <c r="R2">
-        <v>293.399760129024</v>
+        <v>1021.434563659125</v>
       </c>
       <c r="S2">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="T2">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>34.261431</v>
       </c>
       <c r="I3">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J3">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.021610666666667</v>
+        <v>3.030775</v>
       </c>
       <c r="N3">
-        <v>3.064832</v>
+        <v>9.092325000000001</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>11.66728112162134</v>
+        <v>34.612896179675</v>
       </c>
       <c r="R3">
-        <v>105.005530094592</v>
+        <v>311.516065617075</v>
       </c>
       <c r="S3">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="T3">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H4">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I4">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J4">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,10 +685,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.021610666666667</v>
+        <v>3.030775</v>
       </c>
       <c r="N4">
-        <v>3.064832</v>
+        <v>9.092325000000001</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.6984234511928891</v>
+        <v>3.772139944558333</v>
       </c>
       <c r="R4">
-        <v>6.285811060736001</v>
+        <v>33.949259501025</v>
       </c>
       <c r="S4">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="T4">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.899486</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H5">
-        <v>29.698458</v>
+        <v>30.115763</v>
       </c>
       <c r="I5">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J5">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,10 +747,10 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.021610666666667</v>
+        <v>3.030775</v>
       </c>
       <c r="N5">
-        <v>3.064832</v>
+        <v>9.092325000000001</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>10.11342049211733</v>
+        <v>30.42470053544167</v>
       </c>
       <c r="R5">
-        <v>91.02078442905601</v>
+        <v>273.8223048189751</v>
       </c>
       <c r="S5">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="T5">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6568320000000001</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H6">
-        <v>1.970496</v>
+        <v>3.981532</v>
       </c>
       <c r="I6">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J6">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.021610666666667</v>
+        <v>3.030775</v>
       </c>
       <c r="N6">
-        <v>3.064832</v>
+        <v>9.092325000000001</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.6710265774080002</v>
+        <v>4.022375882433334</v>
       </c>
       <c r="R6">
-        <v>6.039239196672002</v>
+        <v>36.2013829419</v>
       </c>
       <c r="S6">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="T6">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4491346666666667</v>
+        <v>0.630923</v>
       </c>
       <c r="H7">
-        <v>1.347404</v>
+        <v>1.892769</v>
       </c>
       <c r="I7">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="J7">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.021610666666667</v>
+        <v>3.030775</v>
       </c>
       <c r="N7">
-        <v>3.064832</v>
+        <v>9.092325000000001</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.4588407662364445</v>
+        <v>1.912185655325</v>
       </c>
       <c r="R7">
-        <v>4.129566896128001</v>
+        <v>17.209670897925</v>
       </c>
       <c r="S7">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="T7">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
     </row>
   </sheetData>
